--- a/Files/Vaccine_July 5, 2016.xlsx
+++ b/Files/Vaccine_July 5, 2016.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="315">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Contract Number</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP [1]</t>
+    <t xml:space="preserve">DTaP </t>
   </si>
   <si>
     <t xml:space="preserve">Daptacel</t>
@@ -92,7 +92,7 @@
     <t xml:space="preserve">10 pack - 1 dose T-L syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IPV [2]</t>
+    <t xml:space="preserve">DTaP-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Kinrix</t>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">10 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-Hep B-IPV [4]</t>
+    <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">Pediarix</t>
@@ -128,7 +128,7 @@
     <t xml:space="preserve">$72.73</t>
   </si>
   <si>
-    <t xml:space="preserve">DTaP-IP-HI [4]</t>
+    <t xml:space="preserve">DTaP-IP-HI </t>
   </si>
   <si>
     <t xml:space="preserve">Pentacel</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">$87.48</t>
   </si>
   <si>
-    <t xml:space="preserve">e-IPV [5]</t>
+    <t xml:space="preserve">e-IPV </t>
   </si>
   <si>
     <t xml:space="preserve">IPOL</t>
@@ -164,7 +164,7 @@
     <t xml:space="preserve">$30.17</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Pediatric [5]</t>
+    <t xml:space="preserve">Hepatitis A Pediatric </t>
   </si>
   <si>
     <t xml:space="preserve">Vaqta</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">58160-0825-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
     <t xml:space="preserve">Twinrix</t>
@@ -221,8 +221,7 @@
     <t xml:space="preserve">$95.23</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B [5]
-Pediatric/Adolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">Engerix B</t>
@@ -237,8 +236,7 @@
     <t xml:space="preserve">58160-0820-52</t>
   </si>
   <si>
-    <t xml:space="preserve">Recombivax
-HB</t>
+    <t xml:space="preserve">Recombivax HB</t>
   </si>
   <si>
     <t xml:space="preserve">00006-4981-00</t>
@@ -256,7 +254,7 @@
     <t xml:space="preserve">$23.95</t>
   </si>
   <si>
-    <t xml:space="preserve">Hib [5]</t>
+    <t xml:space="preserve">Hib </t>
   </si>
   <si>
     <t xml:space="preserve">PedvaxHIB</t>
@@ -286,7 +284,7 @@
     <t xml:space="preserve">49281-0545-03</t>
   </si>
   <si>
-    <t xml:space="preserve">HIBMENCY [3]</t>
+    <t xml:space="preserve">HIBMENCY </t>
   </si>
   <si>
     <t xml:space="preserve">MENHIBRIX</t>
@@ -301,7 +299,7 @@
     <t xml:space="preserve">$24.71</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent [5]</t>
+    <t xml:space="preserve">HPV - Human Papillomavirus 9-valent </t>
   </si>
   <si>
     <t xml:space="preserve">Gardasil9</t>
@@ -316,7 +314,7 @@
     <t xml:space="preserve">$177.70</t>
   </si>
   <si>
-    <t xml:space="preserve">MENB - Meningococcal Group B [5]</t>
+    <t xml:space="preserve">MENB - Meningococcal Group B </t>
   </si>
   <si>
     <t xml:space="preserve">Trumenba</t>
@@ -355,7 +353,7 @@
     <t xml:space="preserve">1 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate (Groups A, C, Y and W-135) </t>
   </si>
   <si>
     <t xml:space="preserve">Menactra</t>
@@ -382,7 +380,7 @@
     <t xml:space="preserve">$119.75</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) [1]</t>
+    <t xml:space="preserve">Measles, Mumps and Rubella (MMR) </t>
   </si>
   <si>
     <t xml:space="preserve">M-M-RII</t>
@@ -397,7 +395,7 @@
     <t xml:space="preserve">$62.79</t>
   </si>
   <si>
-    <t xml:space="preserve">MMR/Varicella [2]</t>
+    <t xml:space="preserve">MMR/Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">ProQuad</t>
@@ -412,8 +410,7 @@
     <t xml:space="preserve">$180.05</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13 TM</t>
@@ -443,7 +440,7 @@
     <t xml:space="preserve">$78.90</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Pentavalent </t>
   </si>
   <si>
     <t xml:space="preserve">RotaTeq</t>
@@ -467,7 +464,7 @@
     <t xml:space="preserve">25 pack - 1 dose tube</t>
   </si>
   <si>
-    <t xml:space="preserve">Rotavirus, Live, Oral, Oral [5]</t>
+    <t xml:space="preserve">Rotavirus, Live, Oral, Oral </t>
   </si>
   <si>
     <t xml:space="preserve">Rotarix</t>
@@ -482,7 +479,7 @@
     <t xml:space="preserve">$109.73</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus  Diphtheria Toxoids [3]</t>
+    <t xml:space="preserve">Tetanus  Diphtheria Toxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Tenivac</t>
@@ -500,7 +497,7 @@
     <t xml:space="preserve">49281-0215-10</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis [1]</t>
+    <t xml:space="preserve">Tetanus Toxoid, Reduced Diphtheria Toxoid and Acellular Pertussis </t>
   </si>
   <si>
     <t xml:space="preserve">Boostrix</t>
@@ -533,7 +530,7 @@
     <t xml:space="preserve">5 pack - 1 dose syringe</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella [5]</t>
+    <t xml:space="preserve">Varicella </t>
   </si>
   <si>
     <t xml:space="preserve">Varivax</t>
@@ -548,7 +545,7 @@
     <t xml:space="preserve">$107.67</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">00006-4096-02</t>
@@ -572,7 +569,7 @@
     <t xml:space="preserve">$61.77</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A Adult [5]</t>
+    <t xml:space="preserve">Hepatitis A Adult </t>
   </si>
   <si>
     <t xml:space="preserve">58160-0826-11</t>
@@ -590,7 +587,7 @@
     <t xml:space="preserve">$63.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult [3]</t>
+    <t xml:space="preserve">Hepatitis A-Hepatitis B Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$54.66</t>
@@ -599,10 +596,7 @@
     <t xml:space="preserve">$92.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B-Adult [5]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recombivax HB</t>
+    <t xml:space="preserve">Hepatitis B-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">00006-4995-41</t>
@@ -644,13 +638,13 @@
     <t xml:space="preserve">$28.55</t>
   </si>
   <si>
-    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent [5]</t>
+    <t xml:space="preserve">HPV-Human Papillomavirus 9 Valent </t>
   </si>
   <si>
     <t xml:space="preserve">$119.04</t>
   </si>
   <si>
-    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult [1]</t>
+    <t xml:space="preserve">Measles, Mumps,  Rubella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose vials</t>
@@ -659,7 +653,7 @@
     <t xml:space="preserve">$40.00</t>
   </si>
   <si>
-    <t xml:space="preserve">Meningococcal Conjugate [5]</t>
+    <t xml:space="preserve">Meningococcal Conjugate </t>
   </si>
   <si>
     <t xml:space="preserve">$72.45</t>
@@ -689,8 +683,7 @@
     <t xml:space="preserve">$117.49</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal
-13-valent [5] (Adult)</t>
+    <t xml:space="preserve">Pneumococcal 13-valent  (Adult)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar 13</t>
@@ -714,7 +707,7 @@
     <t xml:space="preserve">10 pack - single dose vial</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus and Diphtheria Toxoids[3]</t>
+    <t xml:space="preserve">Tetanus and Diphtheria Toxoids</t>
   </si>
   <si>
     <t xml:space="preserve">$12.271</t>
@@ -741,7 +734,7 @@
     <t xml:space="preserve">$25.01</t>
   </si>
   <si>
-    <t xml:space="preserve">Varicella-Adult [5]</t>
+    <t xml:space="preserve">Varicella-Adult </t>
   </si>
   <si>
     <t xml:space="preserve">$66.36</t>
@@ -762,12 +755,10 @@
     <t xml:space="preserve">$196.91</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent</t>
+    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0625-15</t>
@@ -782,14 +773,10 @@
     <t xml:space="preserve">200-2016-88487</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 6-35 months)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent
-Pediatric dose
-No Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent Pediatric dose No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0516-25</t>
@@ -801,13 +788,10 @@
     <t xml:space="preserve">$23.167</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 36 months and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent
-No-Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluzone Quadrivalent No-Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">49281-0416-50</t>
@@ -828,9 +812,7 @@
     <t xml:space="preserve">$18.487</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluarix
-Quadrivalent
-Preservative Free</t>
+    <t xml:space="preserve">Fluarix Quadrivalent Preservative Free</t>
   </si>
   <si>
     <t xml:space="preserve">58160-0905-52</t>
@@ -845,8 +827,7 @@
     <t xml:space="preserve">200-2016-88484</t>
   </si>
   <si>
-    <t xml:space="preserve">FluLaval
-Quadrivalent</t>
+    <t xml:space="preserve">FluLaval Quadrivalent</t>
   </si>
   <si>
     <t xml:space="preserve">19515-0903-11</t>
@@ -858,8 +839,7 @@
     <t xml:space="preserve">$15.77</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 4 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 4 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluvirin</t>
@@ -880,13 +860,10 @@
     <t xml:space="preserve">200-2016-88486</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-Live, Intranasal (Age 2-49 years)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FluMist
-Quadrivalent
-No Preservative</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FluMist Quadrivalent No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">66019-0303-10</t>
@@ -907,19 +884,16 @@
     <t xml:space="preserve">200-2016-88485</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 9 years and older)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afluria
-No Preservative</t>
+    <t xml:space="preserve">Influenza  (Age 9 years and older)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afluria No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">33332-0016-01</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack-1 dose
-syringe</t>
+    <t xml:space="preserve">10 pack-1 dose syringe</t>
   </si>
   <si>
     <t xml:space="preserve">$7.99</t>
@@ -946,9 +920,7 @@
     <t xml:space="preserve">200-2016-88482</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-Quadrivalent
-No Preservative</t>
+    <t xml:space="preserve">Fluzone Quadrivalent No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">$13.961</t>
@@ -963,17 +935,13 @@
     <t xml:space="preserve">200-2016-88479</t>
   </si>
   <si>
-    <t xml:space="preserve">FluLaval Quadrivalent</t>
-  </si>
-  <si>
     <t xml:space="preserve">$11.76</t>
   </si>
   <si>
     <t xml:space="preserve">200-2016-88478</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza [5]
-(Age 18 years and older)</t>
+    <t xml:space="preserve">Influenza  (Age 18 years and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Flublok No Preservative</t>
@@ -2537,19 +2505,19 @@
         <v>193</v>
       </c>
       <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
         <v>194</v>
-      </c>
-      <c r="C7" t="s">
-        <v>195</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" t="s">
         <v>196</v>
-      </c>
-      <c r="F7" t="s">
-        <v>197</v>
       </c>
       <c r="G7" s="1">
         <v>42916</v>
@@ -2566,19 +2534,19 @@
         <v>193</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" t="s">
         <v>198</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>199</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>200</v>
-      </c>
-      <c r="F8" t="s">
-        <v>201</v>
       </c>
       <c r="G8" s="1">
         <v>42916</v>
@@ -2595,19 +2563,19 @@
         <v>193</v>
       </c>
       <c r="B9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" t="s">
         <v>202</v>
-      </c>
-      <c r="C9" t="s">
-        <v>203</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" t="s">
         <v>204</v>
-      </c>
-      <c r="F9" t="s">
-        <v>205</v>
       </c>
       <c r="G9" s="1">
         <v>42916</v>
@@ -2624,19 +2592,19 @@
         <v>193</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G10" s="1">
         <v>42916</v>
@@ -2650,7 +2618,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B11" t="s">
         <v>95</v>
@@ -2662,7 +2630,7 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F11" t="s">
         <v>98</v>
@@ -2679,7 +2647,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B12" t="s">
         <v>122</v>
@@ -2688,10 +2656,10 @@
         <v>123</v>
       </c>
       <c r="D12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E12" t="s">
         <v>211</v>
-      </c>
-      <c r="E12" t="s">
-        <v>212</v>
       </c>
       <c r="F12" t="s">
         <v>125</v>
@@ -2708,7 +2676,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B13" t="s">
         <v>117</v>
@@ -2720,10 +2688,10 @@
         <v>40</v>
       </c>
       <c r="E13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" t="s">
         <v>214</v>
-      </c>
-      <c r="F13" t="s">
-        <v>215</v>
       </c>
       <c r="G13" s="1">
         <v>42916</v>
@@ -2737,7 +2705,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
         <v>113</v>
@@ -2749,7 +2717,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F14" t="s">
         <v>116</v>
@@ -2758,10 +2726,10 @@
         <v>42916</v>
       </c>
       <c r="H14" t="s">
+        <v>216</v>
+      </c>
+      <c r="I14" t="s">
         <v>217</v>
-      </c>
-      <c r="I14" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="15">
@@ -2778,7 +2746,7 @@
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F15" t="s">
         <v>103</v>
@@ -2790,7 +2758,7 @@
         <v>104</v>
       </c>
       <c r="I15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16">
@@ -2807,7 +2775,7 @@
         <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F16" t="s">
         <v>109</v>
@@ -2836,7 +2804,7 @@
         <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F17" t="s">
         <v>109</v>
@@ -2853,22 +2821,22 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18" t="s">
         <v>223</v>
-      </c>
-      <c r="B18" t="s">
-        <v>224</v>
       </c>
       <c r="C18" t="s">
         <v>133</v>
       </c>
       <c r="D18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" t="s">
         <v>225</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>226</v>
-      </c>
-      <c r="F18" t="s">
-        <v>227</v>
       </c>
       <c r="G18" s="1">
         <v>42916</v>
@@ -2877,7 +2845,7 @@
         <v>104</v>
       </c>
       <c r="I18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19">
@@ -2888,13 +2856,13 @@
         <v>137</v>
       </c>
       <c r="C19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" t="s">
+        <v>224</v>
+      </c>
+      <c r="E19" t="s">
         <v>228</v>
-      </c>
-      <c r="D19" t="s">
-        <v>225</v>
-      </c>
-      <c r="E19" t="s">
-        <v>229</v>
       </c>
       <c r="F19" t="s">
         <v>140</v>
@@ -2920,10 +2888,10 @@
         <v>138</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F20" t="s">
         <v>140</v>
@@ -2940,7 +2908,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s">
         <v>155</v>
@@ -2952,7 +2920,7 @@
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F21" t="s">
         <v>158</v>
@@ -2961,15 +2929,15 @@
         <v>42643</v>
       </c>
       <c r="H21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s">
         <v>155</v>
@@ -2981,7 +2949,7 @@
         <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F22" t="s">
         <v>158</v>
@@ -2990,10 +2958,10 @@
         <v>42643</v>
       </c>
       <c r="H22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23">
@@ -3010,7 +2978,7 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F23" t="s">
         <v>168</v>
@@ -3019,10 +2987,10 @@
         <v>42916</v>
       </c>
       <c r="H23" t="s">
+        <v>216</v>
+      </c>
+      <c r="I23" t="s">
         <v>217</v>
-      </c>
-      <c r="I23" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="24">
@@ -3039,7 +3007,7 @@
         <v>170</v>
       </c>
       <c r="E24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F24" t="s">
         <v>168</v>
@@ -3048,10 +3016,10 @@
         <v>42916</v>
       </c>
       <c r="H24" t="s">
+        <v>216</v>
+      </c>
+      <c r="I24" t="s">
         <v>217</v>
-      </c>
-      <c r="I24" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="25">
@@ -3068,10 +3036,10 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
+        <v>236</v>
+      </c>
+      <c r="F25" t="s">
         <v>237</v>
-      </c>
-      <c r="F25" t="s">
-        <v>238</v>
       </c>
       <c r="G25" s="1">
         <v>42916</v>
@@ -3097,10 +3065,10 @@
         <v>31</v>
       </c>
       <c r="E26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G26" s="1">
         <v>42916</v>
@@ -3114,7 +3082,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B27" t="s">
         <v>172</v>
@@ -3126,7 +3094,7 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F27" t="s">
         <v>175</v>
@@ -3143,22 +3111,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28" t="s">
         <v>242</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>243</v>
-      </c>
-      <c r="C28" t="s">
-        <v>244</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="s">
+        <v>244</v>
+      </c>
+      <c r="F28" t="s">
         <v>245</v>
-      </c>
-      <c r="F28" t="s">
-        <v>246</v>
       </c>
       <c r="G28" s="1">
         <v>42916</v>
@@ -3217,22 +3185,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" t="s">
         <v>247</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>248</v>
-      </c>
-      <c r="C2" t="s">
-        <v>249</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
       </c>
       <c r="E2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" t="s">
         <v>250</v>
-      </c>
-      <c r="F2" t="s">
-        <v>251</v>
       </c>
       <c r="G2" s="1">
         <v>42794</v>
@@ -3241,27 +3209,27 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" t="s">
         <v>253</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>254</v>
-      </c>
-      <c r="C3" t="s">
-        <v>255</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
       </c>
       <c r="E3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F3" t="s">
         <v>256</v>
-      </c>
-      <c r="F3" t="s">
-        <v>257</v>
       </c>
       <c r="G3" s="1">
         <v>42794</v>
@@ -3270,27 +3238,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" t="s">
         <v>258</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>259</v>
-      </c>
-      <c r="C4" t="s">
-        <v>260</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
       </c>
       <c r="E4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" t="s">
         <v>261</v>
-      </c>
-      <c r="F4" t="s">
-        <v>262</v>
       </c>
       <c r="G4" s="1">
         <v>42794</v>
@@ -3299,27 +3267,27 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" t="s">
         <v>258</v>
       </c>
-      <c r="B5" t="s">
-        <v>259</v>
-      </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" t="s">
         <v>264</v>
-      </c>
-      <c r="F5" t="s">
-        <v>265</v>
       </c>
       <c r="G5" s="1">
         <v>42794</v>
@@ -3328,27 +3296,27 @@
         <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" t="s">
         <v>266</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" t="s">
         <v>267</v>
       </c>
-      <c r="D6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>268</v>
-      </c>
-      <c r="F6" t="s">
-        <v>269</v>
       </c>
       <c r="G6" s="1">
         <v>42794</v>
@@ -3357,27 +3325,27 @@
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" t="s">
         <v>271</v>
-      </c>
-      <c r="C7" t="s">
-        <v>272</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
       </c>
       <c r="E7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F7" t="s">
         <v>273</v>
-      </c>
-      <c r="F7" t="s">
-        <v>274</v>
       </c>
       <c r="G7" s="1">
         <v>42794</v>
@@ -3386,123 +3354,123 @@
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B8" t="s">
         <v>275</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>276</v>
-      </c>
-      <c r="C8" t="s">
-        <v>277</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
       </c>
       <c r="E8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F8" t="s">
         <v>278</v>
-      </c>
-      <c r="F8" t="s">
-        <v>279</v>
       </c>
       <c r="G8" s="1">
         <v>42794</v>
       </c>
       <c r="H8" t="s">
+        <v>279</v>
+      </c>
+      <c r="I8" t="s">
         <v>280</v>
-      </c>
-      <c r="I8" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" t="s">
         <v>282</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>283</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>284</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>285</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>286</v>
-      </c>
-      <c r="F9" t="s">
-        <v>287</v>
       </c>
       <c r="G9" s="1">
         <v>42794</v>
       </c>
       <c r="H9" t="s">
+        <v>287</v>
+      </c>
+      <c r="I9" t="s">
         <v>288</v>
-      </c>
-      <c r="I9" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" t="s">
         <v>290</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>291</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>292</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>293</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>294</v>
-      </c>
-      <c r="F10" t="s">
-        <v>295</v>
       </c>
       <c r="G10" s="1">
         <v>42794</v>
       </c>
       <c r="H10" t="s">
+        <v>295</v>
+      </c>
+      <c r="I10" t="s">
         <v>296</v>
-      </c>
-      <c r="I10" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B11" t="s">
+        <v>297</v>
+      </c>
+      <c r="C11" t="s">
         <v>298</v>
-      </c>
-      <c r="C11" t="s">
-        <v>299</v>
       </c>
       <c r="D11" t="s">
         <v>46</v>
       </c>
       <c r="E11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" t="s">
         <v>278</v>
-      </c>
-      <c r="F11" t="s">
-        <v>279</v>
       </c>
       <c r="G11" s="1">
         <v>42794</v>
       </c>
       <c r="H11" t="s">
+        <v>295</v>
+      </c>
+      <c r="I11" t="s">
         <v>296</v>
-      </c>
-      <c r="I11" t="s">
-        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3552,22 +3520,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" t="s">
         <v>247</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>248</v>
-      </c>
-      <c r="C2" t="s">
-        <v>249</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G2" s="1">
         <v>42794</v>
@@ -3576,27 +3544,27 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G3" s="1">
         <v>42794</v>
@@ -3605,27 +3573,27 @@
         <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G4" s="1">
         <v>42794</v>
@@ -3634,56 +3602,56 @@
         <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" t="s">
         <v>275</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>276</v>
-      </c>
-      <c r="C5" t="s">
-        <v>277</v>
       </c>
       <c r="D5" t="s">
         <v>46</v>
       </c>
       <c r="E5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5" t="s">
         <v>278</v>
-      </c>
-      <c r="F5" t="s">
-        <v>279</v>
       </c>
       <c r="G5" s="1">
         <v>42794</v>
       </c>
       <c r="H5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" t="s">
         <v>266</v>
       </c>
-      <c r="C6" t="s">
-        <v>267</v>
-      </c>
       <c r="D6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E6" t="s">
         <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G6" s="1">
         <v>42794</v>
@@ -3692,27 +3660,27 @@
         <v>21</v>
       </c>
       <c r="I6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="C7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G7" s="1">
         <v>42794</v>
@@ -3721,94 +3689,94 @@
         <v>21</v>
       </c>
       <c r="I7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" t="s">
         <v>290</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>291</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>292</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>293</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>294</v>
-      </c>
-      <c r="F8" t="s">
-        <v>295</v>
       </c>
       <c r="G8" s="1">
         <v>42794</v>
       </c>
       <c r="H8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9" t="s">
         <v>298</v>
-      </c>
-      <c r="C9" t="s">
-        <v>299</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
       </c>
       <c r="E9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F9" t="s">
         <v>278</v>
-      </c>
-      <c r="F9" t="s">
-        <v>279</v>
       </c>
       <c r="G9" s="1">
         <v>42794</v>
       </c>
       <c r="H9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>308</v>
+      </c>
+      <c r="B10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" t="s">
         <v>310</v>
-      </c>
-      <c r="B10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C10" t="s">
-        <v>312</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G10" s="1">
         <v>42794</v>
       </c>
       <c r="H10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
